--- a/biology/Botanique/Pterocarpus_macrocarpus/Pterocarpus_macrocarpus.xlsx
+++ b/biology/Botanique/Pterocarpus_macrocarpus/Pterocarpus_macrocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocarpus macrocarpus est une espèce d’arbres de la famille des Fabacées qu'on trouve dans les forêts tropicales de la péninsule indochinoise : Birmanie, Thaïlande, Laos, Cambodge et Vietnam.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocarpus macrocarpus est un arbre de taille moyenne de 10 à 30 m de haut avec un tronc dont le diamètre peut atteindre 1,7 m. 
 Ses fleurs sont jaunes. Son bois est dur et résiste aux termites.
@@ -546,9 +560,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pterocarpus macrocarpus a pour synonymes selon Plants of the World online (POWO)                (22 février 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pterocarpus macrocarpus a pour synonymes selon Plants of the World online (POWO)                (22 février 2021) :
 Lingoum cambodianum Pierre
 Lingoum glaucinum Pierre
 Lingoum gracile Pierre
@@ -583,9 +599,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (22 février 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (22 février 2021) :
 variété Pterocarpus macrocarpus var. oblongus (Pierre) Gagnep.</t>
         </is>
       </c>
